--- a/Project/Scrum board.xlsx
+++ b/Project/Scrum board.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82B3A9C1-8F41-4C85-8594-4870A297F3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252115D1-6364-4C45-8E5A-CC0F418475E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD036B1A-B6F0-407D-AEA8-5FBF272AE08B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Todo</t>
   </si>
@@ -50,94 +50,61 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Identify #1 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #2 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #3 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #4 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #5 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #6 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #7 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #8 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #9 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #10 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #11 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #12 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #13 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #14 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #15 GoF design pattern</t>
-  </si>
-  <si>
-    <t>Identify #1 code smell</t>
-  </si>
-  <si>
-    <t>Identify #2 code smell</t>
-  </si>
-  <si>
-    <t>Identify #3 code smell</t>
-  </si>
-  <si>
-    <t>Identify #4 code smell</t>
-  </si>
-  <si>
-    <t>Identify #5 code smell</t>
-  </si>
-  <si>
-    <t>Identify #6 code smell</t>
-  </si>
-  <si>
-    <t>Identify #7 code smell</t>
-  </si>
-  <si>
-    <t>Identify #8 code smell</t>
-  </si>
-  <si>
-    <t>Identify #9 code smell</t>
-  </si>
-  <si>
-    <t>Identify #10 code smell</t>
-  </si>
-  <si>
-    <t>Identify #11 code smell</t>
-  </si>
-  <si>
-    <t>Identify #12 code smell</t>
-  </si>
-  <si>
-    <t>Identify #13 code smell</t>
-  </si>
-  <si>
-    <t>Identify #14 code smell</t>
-  </si>
-  <si>
-    <t>Identify #15 code smell</t>
+    <t>Identify GoF design patterns</t>
+  </si>
+  <si>
+    <t>Identify code smells</t>
+  </si>
+  <si>
+    <t>Search possible functionalities to implement</t>
+  </si>
+  <si>
+    <t>Voting for functionalities</t>
+  </si>
+  <si>
+    <t>Find where to put the todoList code</t>
+  </si>
+  <si>
+    <t>Find where to put the taskFiles code</t>
+  </si>
+  <si>
+    <t>Starting to write code for todoList</t>
+  </si>
+  <si>
+    <t>Starting to write code for taskFiles</t>
+  </si>
+  <si>
+    <t>Starting the Use Cases reports</t>
+  </si>
+  <si>
+    <t>Continuing the todoList code</t>
+  </si>
+  <si>
+    <t>Continuing the taskFiles code</t>
+  </si>
+  <si>
+    <t>Finishing the todoList code</t>
+  </si>
+  <si>
+    <t>Finishing the taskFiles code</t>
+  </si>
+  <si>
+    <t>Continuing the Use Cases reports</t>
+  </si>
+  <si>
+    <t>Finishing the Use Cases reports</t>
+  </si>
+  <si>
+    <t>Creating Unit Tests</t>
+  </si>
+  <si>
+    <t>Calculating Code Metrics</t>
+  </si>
+  <si>
+    <t>Creating the YouTube video</t>
+  </si>
+  <si>
+    <t>Find functionalities       to suggest</t>
   </si>
 </sst>
 </file>
@@ -175,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -274,7 +241,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -290,7 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -300,13 +267,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -316,43 +352,20 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -361,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,23 +388,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,12 +406,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,248 +748,208 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E21" sqref="E3:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="2" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+    </row>
+    <row r="3" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
